--- a/autumn/xls/universal_constants.xlsx
+++ b/autumn/xls/universal_constants.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>tb_n_contact</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>tb_rate_late_progression</t>
   </si>
@@ -74,6 +71,15 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>tb_proportion_amplification</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>evidence for value</t>
   </si>
 </sst>
 </file>
@@ -84,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,14 +126,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,18 +167,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB9DAED"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -190,13 +210,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -857,14 +906,20 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1830,173 +1885,200 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B7" s="7">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.24</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>14</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.12</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.4</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7.0000000000000001E-3</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.7</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.2</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.4</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3.5000000000000003E-2</v>
+      <c r="B16" s="7">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+      <c r="B17" s="7">
+        <f>2/12</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
-        <f>2/12</f>
-        <v>0.16666666666666666</v>
+      <c r="B18" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate" prompt="Value must be positive" sqref="B19">
+      <formula1>0</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Proportion" prompt="Value must be between zero and one" sqref="B2:B8">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time period" prompt="Value must be positive" sqref="B9:B18">
+      <formula1>0</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B16:B17 B7" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/autumn/xls/universal_constants.xlsx
+++ b/autumn/xls/universal_constants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="20370" windowHeight="7590" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="fixed_params" sheetId="11" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>tb_rate_late_progression</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>evidence for value</t>
+  </si>
+  <si>
+    <t>tb_multiplier_latency_protection</t>
+  </si>
+  <si>
+    <t>..\settings\pdf\protection_latency_andrews2012.pdf</t>
+  </si>
+  <si>
+    <t>Relative risk of infection in those already latently infected</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +157,14 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,7 +257,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="664">
+  <cellStyleXfs count="665">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -905,8 +922,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -920,10 +938,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="664"/>
   </cellXfs>
-  <cellStyles count="664">
+  <cellStyles count="665">
     <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Comma 2 2" xfId="6"/>
+    <cellStyle name="Hyperlink" xfId="664" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Input 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1885,18 +1905,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1926,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="7">
-        <v>0.12</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,55 +1985,62 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7">
-        <v>0.5</v>
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
-        <v>3</v>
+        <f>60/365.251</f>
+        <v>0.16427059747954148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
         <v>3</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7">
         <v>3</v>
@@ -2020,65 +2048,77 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7">
-        <v>3.5000000000000003E-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7">
-        <f>2/12</f>
-        <v>0.16666666666666666</v>
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7">
-        <v>2</v>
+        <f>2/12</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="7">
-        <v>7.0000000000000001E-3</v>
+      <c r="B20" s="7">
+        <f>6.8/1000000*365</f>
+        <v>2.4819999999999998E-3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate" prompt="Value must be positive" sqref="B19">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate" prompt="Value must be positive" sqref="B20">
       <formula1>0</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Proportion" prompt="Value must be between zero and one" sqref="B2:B8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Proportion" prompt="Value must be between zero and one" sqref="B2:B9">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time period" prompt="Value must be positive" sqref="B9:B18">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time period" prompt="Value must be positive" sqref="B10:B19">
       <formula1>0</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="B16:B17 B7" unlockedFormula="1"/>
+    <ignoredError sqref="B17:B18 B7 B10 B20" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/autumn/xls/universal_constants.xlsx
+++ b/autumn/xls/universal_constants.xlsx
@@ -1908,7 +1908,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/universal_constants.xlsx
+++ b/autumn/xls/universal_constants.xlsx
@@ -19,9 +19,6 @@
     <t>tb_rate_late_progression</t>
   </si>
   <si>
-    <t>tb_proportion_casefatality_untreated</t>
-  </si>
-  <si>
     <t>tb_timeperiod_activeuntreated</t>
   </si>
   <si>
@@ -49,18 +46,9 @@
     <t>tb_multiplier_force_smearneg</t>
   </si>
   <si>
-    <t>tb_proportion_early_progression</t>
-  </si>
-  <si>
     <t>tb_timeperiod_early_latent</t>
   </si>
   <si>
-    <t>tb_proportion_casefatality_untreated_smearpos</t>
-  </si>
-  <si>
-    <t>tb_proportion_casefatality_untreated_smearneg</t>
-  </si>
-  <si>
     <t>tb_multiplier_bcg_protection</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>tb_proportion_amplification</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -89,6 +74,21 @@
   </si>
   <si>
     <t>Relative risk of infection in those already latently infected</t>
+  </si>
+  <si>
+    <t>tb_prop_casefatality_untreated_smearpos</t>
+  </si>
+  <si>
+    <t>tb_prop_casefatality_untreated_smearneg</t>
+  </si>
+  <si>
+    <t>tb_prop_casefatality_untreated</t>
+  </si>
+  <si>
+    <t>tb_prop_amplification</t>
+  </si>
+  <si>
+    <t>tb_prop_early_progression</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1908,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,21 +1922,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7">
         <v>0.24</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7">
         <v>0.10299999999999999</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7">
         <v>0.7</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7">
         <v>0.2</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7">
         <v>0.4</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7">
         <f>1/15</f>
@@ -1985,21 +1985,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7">
         <v>0.21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
         <f>60/365.251</f>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="7">
         <v>3</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>0.5</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <v>3</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>3.5000000000000003E-2</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7">
         <f>1/12</f>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7">
         <f>2/12</f>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>

--- a/autumn/xls/universal_constants.xlsx
+++ b/autumn/xls/universal_constants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="20370" windowHeight="7530" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="fixed_params" sheetId="11" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>tb_rate_late_progression</t>
   </si>
@@ -89,15 +89,17 @@
   </si>
   <si>
     <t>tb_prop_early_progression</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment_smearneg_xpert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -928,17 +930,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="664"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="664"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1905,37 +1907,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7">
@@ -1943,7 +1945,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="7">
@@ -1951,7 +1953,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7">
@@ -1959,7 +1961,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7">
@@ -1967,7 +1969,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="7">
@@ -1975,7 +1977,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="7">
@@ -1984,7 +1986,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7">
@@ -1993,12 +1995,12 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7">
@@ -2006,7 +2008,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7">
@@ -2015,7 +2017,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="7">
@@ -2023,7 +2025,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="7">
@@ -2031,7 +2033,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7">
@@ -2039,7 +2041,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="7">
@@ -2047,7 +2049,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="7">
@@ -2055,7 +2057,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
@@ -2063,7 +2065,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="7">
@@ -2072,7 +2074,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="7">
@@ -2081,7 +2083,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="7">
@@ -2089,12 +2091,21 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="7">
         <f>6.8/1000000*365</f>
         <v>2.4819999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <f>1/52</f>
+        <v>1.9230769230769232E-2</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/universal_constants.xlsx
+++ b/autumn/xls/universal_constants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>tb_rate_late_progression</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>program_timeperiod_await_treatment_smearneg_xpert</t>
+  </si>
+  <si>
+    <t>tb_prop_ipt_effectiveness</t>
+  </si>
+  <si>
+    <t>Relative risk of TB in those treated with IPT (i.e. lower value more effective)</t>
+  </si>
+  <si>
+    <t>tb_prop_ltbi_test_sensitivity</t>
+  </si>
+  <si>
+    <t>tb_prop_contacts_infected</t>
+  </si>
+  <si>
+    <t>demo_household_size</t>
+  </si>
+  <si>
+    <t>*this is Fiji's household size in 2008</t>
   </si>
 </sst>
 </file>
@@ -1907,17 +1925,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -2064,7 +2082,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -2099,13 +2117,51 @@
         <v>2.4819999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="8">
         <f>1/52</f>
         <v>1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
